--- a/XuMiuDuTing/RabiConfig/xlsx/Skill.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9990E0A3-598F-4295-95C6-95411FA087A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C805E68-FD8A-4732-906F-599C23E35C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>string</t>
   </si>
@@ -63,6 +63,103 @@
   </si>
   <si>
     <t>skill描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星光</t>
+  </si>
+  <si>
+    <t>对单体角色造成攻击力50%的伤害，为敌方赋予“星”buff（持续两回合）。 “星”：持有该buff的敌方防御力下降20%</t>
+  </si>
+  <si>
+    <t>为我方单体赋予“激情”buff，该buff持续三回合 “激情”：持有该buff的角色每主动消耗的一点bp都能为其赋予一层攻击力提升20%（持续一回合）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对敌方全体角色造成70%攻击力的伤害；对持有“星”buff的敌人改为造成250%攻击力的伤害。对具有“大型敌人”属性的目标，本次伤害的伤害系数会增加0.4。 </t>
+  </si>
+  <si>
+    <t>为敌方全体附加攻击力下降20%的负面buff，持续三回合。 为敌方全体附加受伤加重20%的负面buff，持续三回合。</t>
+  </si>
+  <si>
+    <t>消除目标身上所有【可驱散】的负面Buff，对象身上每层被消除的debuff赋予会赋予对象一层“虚谬”，持续五回合</t>
+  </si>
+  <si>
+    <t>为自身附加“苦旅”与“忍耐”状态。持续五回合。</t>
+  </si>
+  <si>
+    <t>对敌方全体角色造成190%攻击力的伤害，敌方角色每持有一个负面buff，额外多造成一次70%攻击力的伤害。对持有正面buff的敌人伤害减半。对敌方全体赋予“星”Buff（持续两回合）</t>
+  </si>
+  <si>
+    <t>先制；回复1点BP，并为自身赋予“反击架势”状态，持续一回合 反击架势：收到伤害时对伤害来源造成相当于70%攻击力的伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve">为除自身外单体角色赋予“被掩护”buff，持续一回合。 “被掩护”：持有该buff的角色受到的伤害将转移给维克多。 </t>
+  </si>
+  <si>
+    <t>对单体角色造成攻击力150%的伤害 并提高自身的仇恨值</t>
+  </si>
+  <si>
+    <t>为自身赋予“增生”与“返生”buff “增生”：每回合恢复30%最大生命值。（持续三回合） “返生”：被击倒不致死，保留一点体力（持续五回合）（一次）</t>
+  </si>
+  <si>
+    <t>维克多根据剩余体力的比例对敌方单体造成一定倍率的伤害。体力比例越低，伤害倍率越高（50%-300%）</t>
+  </si>
+  <si>
+    <t>回复我方全体角色相当于自身最大HP70%的HP，并 赋予“增生”buff，持续三回合。 “增生”：每回合恢复30%最大生命值。</t>
+  </si>
+  <si>
+    <t>对单体造成500%攻击力的伤害，并为对方赋予“燃烬”Buff（持续五回合）</t>
+  </si>
+  <si>
+    <t>失却的激情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒芜星原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颓废的智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚谬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循此苦旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad Astra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击架势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掩护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧印记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不死花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝境的火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绽放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷惘燃烬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -414,10 +511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -448,6 +545,118 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/Skill.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Skill.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C805E68-FD8A-4732-906F-599C23E35C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1658E3DC-D6F1-4167-A580-59DD2F5173AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
     <sheet name="Skill" sheetId="1" r:id="rId2"/>
-    <sheet name="SkillType(未用)" sheetId="3" r:id="rId3"/>
+    <sheet name="SelectType" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>string</t>
   </si>
@@ -66,100 +66,221 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对单体角色造成攻击力50%的伤害，为敌方赋予“星”buff（持续两回合）。 “星”：持有该buff的敌方防御力下降20%</t>
+  </si>
+  <si>
+    <t>为我方单体赋予“激情”buff，该buff持续三回合 “激情”：持有该buff的角色每主动消耗的一点bp都能为其赋予一层攻击力提升20%（持续一回合）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对敌方全体角色造成70%攻击力的伤害；对持有“星”buff的敌人改为造成250%攻击力的伤害。对具有“大型敌人”属性的目标，本次伤害的伤害系数会增加0.4。 </t>
+  </si>
+  <si>
+    <t>为敌方全体附加攻击力下降20%的负面buff，持续三回合。 为敌方全体附加受伤加重20%的负面buff，持续三回合。</t>
+  </si>
+  <si>
+    <t>消除目标身上所有【可驱散】的负面Buff，对象身上每层被消除的debuff赋予会赋予对象一层“虚谬”，持续五回合</t>
+  </si>
+  <si>
+    <t>为自身附加“苦旅”与“忍耐”状态。持续五回合。</t>
+  </si>
+  <si>
+    <t>对敌方全体角色造成190%攻击力的伤害，敌方角色每持有一个负面buff，额外多造成一次70%攻击力的伤害。对持有正面buff的敌人伤害减半。对敌方全体赋予“星”Buff（持续两回合）</t>
+  </si>
+  <si>
+    <t>先制；回复1点BP，并为自身赋予“反击架势”状态，持续一回合 反击架势：收到伤害时对伤害来源造成相当于70%攻击力的伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve">为除自身外单体角色赋予“被掩护”buff，持续一回合。 “被掩护”：持有该buff的角色受到的伤害将转移给维克多。 </t>
+  </si>
+  <si>
+    <t>对单体角色造成攻击力150%的伤害 并提高自身的仇恨值</t>
+  </si>
+  <si>
+    <t>为自身赋予“增生”与“返生”buff “增生”：每回合恢复30%最大生命值。（持续三回合） “返生”：被击倒不致死，保留一点体力（持续五回合）（一次）</t>
+  </si>
+  <si>
+    <t>维克多根据剩余体力的比例对敌方单体造成一定倍率的伤害。体力比例越低，伤害倍率越高（50%-300%）</t>
+  </si>
+  <si>
+    <t>回复我方全体角色相当于自身最大HP70%的HP，并 赋予“增生”buff，持续三回合。 “增生”：每回合恢复30%最大生命值。</t>
+  </si>
+  <si>
+    <t>对单体造成500%攻击力的伤害，并为对方赋予“燃烬”Buff（持续五回合）</t>
+  </si>
+  <si>
+    <t>失却的激情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒芜星原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颓废的智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚谬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循此苦旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad Astra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击架势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掩护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧印记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不死花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝境的火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绽放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷惘燃烬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要选择目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBattleStartCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是先制指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>星光</t>
-  </si>
-  <si>
-    <t>对单体角色造成攻击力50%的伤害，为敌方赋予“星”buff（持续两回合）。 “星”：持有该buff的敌方防御力下降20%</t>
-  </si>
-  <si>
-    <t>为我方单体赋予“激情”buff，该buff持续三回合 “激情”：持有该buff的角色每主动消耗的一点bp都能为其赋予一层攻击力提升20%（持续一回合）。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对敌方全体角色造成70%攻击力的伤害；对持有“星”buff的敌人改为造成250%攻击力的伤害。对具有“大型敌人”属性的目标，本次伤害的伤害系数会增加0.4。 </t>
-  </si>
-  <si>
-    <t>为敌方全体附加攻击力下降20%的负面buff，持续三回合。 为敌方全体附加受伤加重20%的负面buff，持续三回合。</t>
-  </si>
-  <si>
-    <t>消除目标身上所有【可驱散】的负面Buff，对象身上每层被消除的debuff赋予会赋予对象一层“虚谬”，持续五回合</t>
-  </si>
-  <si>
-    <t>为自身附加“苦旅”与“忍耐”状态。持续五回合。</t>
-  </si>
-  <si>
-    <t>对敌方全体角色造成190%攻击力的伤害，敌方角色每持有一个负面buff，额外多造成一次70%攻击力的伤害。对持有正面buff的敌人伤害减半。对敌方全体赋予“星”Buff（持续两回合）</t>
-  </si>
-  <si>
-    <t>先制；回复1点BP，并为自身赋予“反击架势”状态，持续一回合 反击架势：收到伤害时对伤害来源造成相当于70%攻击力的伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve">为除自身外单体角色赋予“被掩护”buff，持续一回合。 “被掩护”：持有该buff的角色受到的伤害将转移给维克多。 </t>
-  </si>
-  <si>
-    <t>对单体角色造成攻击力150%的伤害 并提高自身的仇恨值</t>
-  </si>
-  <si>
-    <t>为自身赋予“增生”与“返生”buff “增生”：每回合恢复30%最大生命值。（持续三回合） “返生”：被击倒不致死，保留一点体力（持续五回合）（一次）</t>
-  </si>
-  <si>
-    <t>维克多根据剩余体力的比例对敌方单体造成一定倍率的伤害。体力比例越低，伤害倍率越高（50%-300%）</t>
-  </si>
-  <si>
-    <t>回复我方全体角色相当于自身最大HP70%的HP，并 赋予“增生”buff，持续三回合。 “增生”：每回合恢复30%最大生命值。</t>
-  </si>
-  <si>
-    <t>对单体造成500%攻击力的伤害，并为对方赋予“燃烬”Buff（持续五回合）</t>
-  </si>
-  <si>
-    <t>失却的激情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒芜星原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颓废的智慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚谬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>循此苦旅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ad Astra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反击架势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掩护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼烧印记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不死花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝境的火焰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绽放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷惘燃烬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpNeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp消耗量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认摄像机视角(需要选择目标)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objCameraStateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择的目标数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllExceptSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyExceptSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterExceptSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了自己全部可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部敌人可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部友方可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了自己全部敌人可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了自己全部友方可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认是否解锁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,6 +621,11 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -511,152 +637,449 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -668,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBFA2BD-52E9-4AC2-91B8-082F0AADDFBD}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -714,6 +1137,54 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XuMiuDuTing/RabiConfig/xlsx/Skill.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Skill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1658E3DC-D6F1-4167-A580-59DD2F5173AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564885CB-49C5-45B2-A177-9A5F9B74ECE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,7 +640,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -825,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>

--- a/XuMiuDuTing/RabiConfig/xlsx/Skill.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564885CB-49C5-45B2-A177-9A5F9B74ECE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36776152-29B3-4A3D-8820-D3D87813AE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="4710" windowWidth="7965" windowHeight="5295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -640,7 +640,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
